--- a/out/目次作成ツール2.xlsx
+++ b/out/目次作成ツール2.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1764B106-5D1F-436C-A4BD-F210C0A512A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A18509-5D99-4867-B297-019AAE0A5111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19390" windowHeight="12310" xr2:uid="{09113D75-1480-434E-836D-85639387D4A1}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="22620" windowHeight="12550" xr2:uid="{DB66FC3B-7FC8-4802-A578-B51724A28534}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -182,7 +182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{BF96D25E-3964-4B14-93BC-DD4D3F5E1F42}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{4D7E4D40-DA06-4BD1-A40A-76286A817260}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD77002C-2F30-468A-9F9C-1D7A42F00531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC30A17A-6B6A-4B48-931A-EDEC54C16710}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次作成ツール2.xlsx
+++ b/out/目次作成ツール2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A18509-5D99-4867-B297-019AAE0A5111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA294AD-143E-4147-92B9-79828A73C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="22620" windowHeight="12550" xr2:uid="{DB66FC3B-7FC8-4802-A578-B51724A28534}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="22620" windowHeight="12150" xr2:uid="{DAF75A0D-A171-4BD0-9979-6EC99944F758}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -182,7 +182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{4D7E4D40-DA06-4BD1-A40A-76286A817260}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{62F0E20C-8D91-4A6D-B069-DB3211889ED4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC30A17A-6B6A-4B48-931A-EDEC54C16710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93179B67-25C3-4433-94D0-7FD95C63487B}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次作成ツール2.xlsx
+++ b/out/目次作成ツール2.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA294AD-143E-4147-92B9-79828A73C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D03889-036A-4A34-9829-49676DC1556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="22620" windowHeight="12150" xr2:uid="{DAF75A0D-A171-4BD0-9979-6EC99944F758}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="19040" windowHeight="12700" xr2:uid="{297422AC-F582-4F4B-88D8-6AB82F8F2352}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -182,7 +182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{62F0E20C-8D91-4A6D-B069-DB3211889ED4}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{0BE44676-37EE-4540-B8BA-9630C4B3FE92}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93179B67-25C3-4433-94D0-7FD95C63487B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65702704-8C8F-4B7E-9BFA-CD996D12D7BC}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次作成ツール2.xlsx
+++ b/out/目次作成ツール2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D03889-036A-4A34-9829-49676DC1556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3704FA47-C88F-47EA-92E3-13C79A485740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="19040" windowHeight="12700" xr2:uid="{297422AC-F582-4F4B-88D8-6AB82F8F2352}"/>
+    <workbookView xWindow="6470" yWindow="1220" windowWidth="19040" windowHeight="12700" xr2:uid="{2A69A401-6597-4EEE-B8F3-767A819680CE}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -182,7 +182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{0BE44676-37EE-4540-B8BA-9630C4B3FE92}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{AD4B6D65-6F9C-43E1-A922-FFB258FA0920}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65702704-8C8F-4B7E-9BFA-CD996D12D7BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6DFB33-3AFC-4881-A485-2509F948FE1D}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
